--- a/05-minimal-sharing/code/winner.xlsx
+++ b/05-minimal-sharing/code/winner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5783\05-minimal-sharing\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5784\05-minimal-sharing\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0A40D-AADB-4806-B356-0E89572312C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A651FB-87E6-43DD-8E2E-B5CDB9A6A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26055" yWindow="13335" windowWidth="22305" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -492,21 +492,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -595,7 +581,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,27 +879,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="6" width="6.71875" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.71875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="10" max="11" width="6.71875" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="24.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -938,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="13.5">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="12.9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -946,16 +930,16 @@
       <c r="C2" s="20">
         <v>15</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="20">
         <v>15</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22">
         <v>40</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22">
         <v>30</v>
       </c>
       <c r="J2" s="3"/>
@@ -976,8 +960,8 @@
       <c r="E3" s="21">
         <v>25</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>30</v>
       </c>
       <c r="H3" s="5"/>
@@ -1168,21 +1152,21 @@
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.71875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="6" width="6.71875" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="11" width="6.71875" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51">
+    <row r="1" spans="1:11" ht="49.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,29 +1417,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDF002-D483-4866-82B8-FCF91E53157C}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="6" width="6.71875" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.71875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="10" max="11" width="6.71875" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5">
+    <row r="1" spans="1:11" ht="24.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="13.5">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="12.9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1488,16 +1472,16 @@
       <c r="C2" s="20">
         <v>15</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="20">
         <v>15</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22">
         <v>40</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22">
         <v>30</v>
       </c>
       <c r="J2" s="3"/>
@@ -1506,7 +1490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1518,8 +1502,8 @@
       <c r="E3" s="21">
         <v>25</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>30</v>
       </c>
       <c r="H3" s="5"/>
@@ -1532,35 +1516,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="21">
         <f>G2/G3</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="22">
+      <c r="I4" s="5">
         <f>I2/I3</f>
         <v>6</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <f>G3/G2</f>
         <v>0.75</v>
       </c>
@@ -1572,21 +1556,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.5">
+    <row r="7" spans="1:11" ht="12.9">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,206 +1577,100 @@
         <v>0.6</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="22">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>0.5</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>0.4</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="26"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="28" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13"/>
+      <c r="B10"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="28" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13"/>
+      <c r="G12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="26"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" s="6" customFormat="1">
-      <c r="A16" s="28" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="13"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" s="30" customFormat="1">
-      <c r="A17" s="29" t="s">
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29" t="s">
+      <c r="I17" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" s="6" customFormat="1">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28" t="s">
+      <c r="B18" s="13"/>
+      <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5">
+    </row>
+    <row r="20" spans="1:10" ht="12.9">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1827,32 +1691,28 @@
         <v>1</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="22">
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>0.8</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <v>0</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/05-minimal-sharing/code/winner.xlsx
+++ b/05-minimal-sharing/code/winner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5784\05-minimal-sharing\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A651FB-87E6-43DD-8E2E-B5CDB9A6A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886245C7-25D4-4A5C-8167-A447647F0C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26055" yWindow="13335" windowWidth="22305" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -493,6 +493,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -879,7 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
@@ -989,7 +992,7 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="G5" s="23">
         <f>G2/G3</f>
         <v>1.3333333333333333</v>
       </c>
@@ -1150,7 +1153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
@@ -1159,7 +1164,9 @@
     <col min="3" max="3" width="7.5546875" customWidth="1"/>
     <col min="4" max="6" width="6.71875" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="11" width="6.71875" customWidth="1"/>
+    <col min="8" max="8" width="6.71875" customWidth="1"/>
+    <col min="9" max="9" width="11.71875" customWidth="1"/>
+    <col min="10" max="11" width="6.71875" customWidth="1"/>
     <col min="12" max="12" width="7.83203125" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" customWidth="1"/>
